--- a/files/graphs.xlsx
+++ b/files/graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\NTUA\DIPLOMA THESIS\Management Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC59B871-5F5F-4E1C-A075-98753EF9C4A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC58DC0F-789F-47CB-AE60-D67DE1661BB4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{DAA63B5D-203C-4315-B928-404F5C410C91}"/>
   </bookViews>
@@ -16,17 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$122:$A$125</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$122:$B$125</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$116:$B$119</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$122:$A$125</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$122:$B$125</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$122:$A$125</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$122:$B$125</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$122:$A$125</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$122:$B$125</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$116:$A$119</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$115</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$116:$A$119</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$115</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$116:$B$119</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$122:$A$125</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$122:$B$125</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Casual</t>
   </si>
@@ -67,9 +61,6 @@
     <t>Προϊόν</t>
   </si>
   <si>
-    <t>3 (ίδια βαθμολογία)</t>
-  </si>
-  <si>
     <t>2 (ίδιες παράμετροι)</t>
   </si>
   <si>
@@ -92,6 +83,9 @@
   </si>
   <si>
     <t>New York - on-the-Go</t>
+  </si>
+  <si>
+    <t>3 (εξισορροπώντας βαθμολογία)</t>
   </si>
 </sst>
 </file>
@@ -1322,6 +1316,586 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR" sz="2400"/>
+              <a:t>Βαθμολογίες</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="2400" baseline="0"/>
+              <a:t> στην 3η εκτέλεση</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Προϊόν 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$82:$E$86</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Casual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Work on-the-Go</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sophisticated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hardcore Power</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Professional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$82:$F$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6FB-4A78-A8AB-4FD0B004DC8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Προϊόν 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$82:$E$86</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Casual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Work on-the-Go</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sophisticated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hardcore Power</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Professional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$82:$G$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6FB-4A78-A8AB-4FD0B004DC8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="729207856"/>
+        <c:axId val="729212776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="729207856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729212776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="729212776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729207856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25588110480928172"/>
+          <c:y val="0.12521477868435568"/>
+          <c:w val="0.58258165541935447"/>
+          <c:h val="9.7942015989283204E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="85000"/>
+        <a:lumOff val="15000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2074,7 +2648,7 @@
                   <c:v>2 (ίδιες παράμετροι)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 (ίδια βαθμολογία)</c:v>
+                  <c:v>3 (εξισορροπώντας βαθμολογία)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2146,7 +2720,7 @@
                   <c:v>2 (ίδιες παράμετροι)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 (ίδια βαθμολογία)</c:v>
+                  <c:v>3 (εξισορροπώντας βαθμολογία)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2418,8 +2992,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26159514328699202"/>
-          <c:y val="0.77679281279267409"/>
+          <c:x val="0.26859678697732053"/>
+          <c:y val="0.79983962809733522"/>
           <c:w val="0.49203910524085342"/>
           <c:h val="0.14391203302230393"/>
         </c:manualLayout>
@@ -5175,10 +5749,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5234,7 +5808,7 @@
         <cx:series layoutId="sunburst" uniqueId="{F4B4BD8E-425C-4236-89AC-2631239649E1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Ζήτηση</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5409,10 +5983,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5675,6 +6249,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8025,6 +8639,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -12140,15 +13250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>709612</xdr:colOff>
+      <xdr:colOff>509587</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1323974</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12587,6 +13697,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>71435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8892404E-9442-4565-9803-B60FAF80EFF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12933,8 +14079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00483DC-9A91-44A4-9A98-148B8E2D1C86}">
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K137" sqref="K137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12966,10 +14112,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -13083,7 +14229,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="1">
         <v>0.1</v>
@@ -13091,7 +14237,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1">
         <v>0.2</v>
@@ -13099,7 +14245,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="1">
         <v>0.4</v>
@@ -13107,21 +14253,27 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
         <v>11</v>
       </c>
-      <c r="C81" t="s">
-        <v>12</v>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -13131,8 +14283,17 @@
       <c r="C82">
         <v>2</v>
       </c>
+      <c r="E82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>84</v>
+      </c>
+      <c r="G82">
+        <v>83</v>
+      </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -13142,8 +14303,17 @@
       <c r="C83">
         <v>76</v>
       </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -13153,8 +14323,17 @@
       <c r="C84">
         <v>67</v>
       </c>
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84">
+        <v>15</v>
+      </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -13164,8 +14343,17 @@
       <c r="C85">
         <v>49</v>
       </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>18</v>
+      </c>
+      <c r="G85">
+        <v>18</v>
+      </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -13175,10 +14363,19 @@
       <c r="C86">
         <v>2</v>
       </c>
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>75</v>
+      </c>
+      <c r="G86">
+        <v>76</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -13205,7 +14402,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B118">
         <v>178</v>
@@ -13216,7 +14413,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119">
         <v>129</v>
@@ -13227,7 +14424,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -13248,7 +14445,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B124" s="2">
         <v>231133</v>
@@ -13256,7 +14453,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B125" s="2">
         <v>172108</v>
@@ -13346,7 +14543,7 @@
     <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B170" s="9">
         <f>236/2366</f>
@@ -13355,7 +14552,7 @@
     </row>
     <row r="171" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B171" s="10">
         <f>437/2366</f>
@@ -13364,7 +14561,7 @@
     </row>
     <row r="172" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B172" s="11">
         <f>960/2366</f>
@@ -13373,7 +14570,7 @@
     </row>
     <row r="173" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B173" s="12">
         <f>733/2366</f>
